--- a/data/minfin/29_questions.xlsx
+++ b/data/minfin/29_questions.xlsx
@@ -18,6 +18,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Группа вопросов согласована Минфином России 26.07.2017 - СТЕФУРАК ОЛЕСЯ БОГДАНОВНА [Olesya.Stefurak@minfin.ru]
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
@@ -215,9 +252,6 @@
     <t>Информация об исполнении основных показателей федерального бюджета и консолидированного бюджета в две тысячи двенадцатом - две тысячи шестнадцатом годах размещена в приложении один к иллюстрированному изданию «Исполнение федерального бюджета и бюджетов бюджетной системы Российской Федерации за две тысячи шестнадцатый год»</t>
   </si>
   <si>
-    <t>Информация об исполнении основных показателей федерального бюджета и консолидированного бюджета РФ и государственных внебюджетных фондов в 2012 – 2016 годах размещена в приложении 1 к иллюстрированному изданию «Исполнение федерального бюджета и бюджетов бюджетной системы Российской Федерации за 2016 год», опубликованному на официальном сайте Министерства финансов Российской Федерации</t>
-  </si>
-  <si>
     <t>Иллюстрированное издание «Исполнение федерального бюджета и бюджетов бюджетной системы Российской Федерации за 2016 год» на официальном сайте Министерства финансов Российской Федерации</t>
   </si>
   <si>
@@ -252,22 +286,25 @@
     <t>На начало две тысячи семнадцатого года объем Фонда национального благосостояния составил четыре триллиона триста пятьдесят девять миллиардов двести миллионов рублей, что на шестьдесят четыре процента выше, чем на начало две тысячи двенадцатого года</t>
   </si>
   <si>
-    <t>Объем Фонда национального благосостояния на 01.01.2017 года составил 4359,2 млрд. рублей, что на 1567,8 млрд. рублей или 64,1% выше, чем на 01.01.2012 года и на 868 млрд. рублей или на 19,9% меньше, чем на 01.01.2016 года.
-Информация об изменении объема Фонда национального благосостояния в 2011 – 2016 годах опубликована на официальном сайте государственной статистике ЕМИСС</t>
-  </si>
-  <si>
     <t xml:space="preserve">Информация об объеме Фонда национального благосостояния на официальном сайте государственной статистики системы ЕМИСС
 </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.fedstat.ru/indicator/39928 </t>
+  </si>
+  <si>
+    <t>Информация об исполнении основных показателей федерального бюджета и консолидированного бюджета в 2012 – 2016 годах размещена в приложении 1 к иллюстрированному информационному изданию «Исполнение федерального бюджета и бюджетов бюджетной системы Российской Федерации за 2016 год», опубликованному на официальном сайте Министерства финансов Российской Федерации</t>
+  </si>
+  <si>
+    <t>Объем Фонда национального благосостояния на 01.01.2017 года составил 4359,2 млрд. рублей, что на 1564,7 млрд. рублей или 56,0% выше, чем на 01.01.2012 года и на 868 млрд. рублей или на 16,6% меньше, чем на 01.01.2016 года.
+Информация об изменении объема Фонда национального благосостояния в 2011 – 2016 годах опубликована на официальном сайте государственной статистике ЕМИСС</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,13 +341,40 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -337,12 +401,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -352,9 +410,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -365,6 +420,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -679,7 +743,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -690,15 +754,15 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="77.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="141.28515625" style="2" customWidth="1"/>
@@ -715,7 +779,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -752,255 +816,255 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="189">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="189">
+      <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="283.5">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="283.5">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="157.5">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="157.5">
+      <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="252">
-      <c r="A5" s="8" t="s">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="252">
+      <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="157.5">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="157.5">
+      <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="110.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="110.25">
+      <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="J7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="78.75">
+      <c r="A8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="78.75">
-      <c r="A8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="94.5">
+      <c r="A9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="94.5">
-      <c r="A9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="G9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="5" customFormat="1">
-      <c r="A10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1">
-      <c r="A11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1">
-      <c r="A12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1">
-      <c r="A13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1">
-      <c r="A14" s="8"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" s="5" customFormat="1">
-      <c r="A15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" s="5" customFormat="1">
-      <c r="A16" s="8"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" s="5" customFormat="1">
-      <c r="A17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" s="5" customFormat="1">
-      <c r="A18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" s="5" customFormat="1">
-      <c r="A19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" s="5" customFormat="1">
-      <c r="A20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" s="5" customFormat="1">
-      <c r="A21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" s="5" customFormat="1">
-      <c r="A22" s="8"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" s="5" customFormat="1">
-      <c r="A23" s="8"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" s="5" customFormat="1">
-      <c r="A24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" s="5" customFormat="1">
-      <c r="A25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" s="5" customFormat="1">
-      <c r="A26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" s="5" customFormat="1">
-      <c r="A27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" s="5" customFormat="1">
-      <c r="A28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" s="5" customFormat="1">
-      <c r="A29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" s="5" customFormat="1">
-      <c r="A30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" s="5" customFormat="1">
-      <c r="A31" s="8"/>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1">
+      <c r="A10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1">
+      <c r="A11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" s="3" customFormat="1">
+      <c r="A12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" s="3" customFormat="1">
+      <c r="A13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1">
+      <c r="A14" s="12"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1">
+      <c r="A15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" s="3" customFormat="1">
+      <c r="A16" s="12"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" s="3" customFormat="1">
+      <c r="A17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1">
+      <c r="A18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" s="3" customFormat="1">
+      <c r="A19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" s="3" customFormat="1">
+      <c r="A20" s="12"/>
+    </row>
+    <row r="21" spans="1:4" s="3" customFormat="1">
+      <c r="A21" s="12"/>
+    </row>
+    <row r="22" spans="1:4" s="3" customFormat="1">
+      <c r="A22" s="12"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" s="3" customFormat="1">
+      <c r="A23" s="12"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" s="3" customFormat="1">
+      <c r="A24" s="12"/>
+    </row>
+    <row r="25" spans="1:4" s="3" customFormat="1">
+      <c r="A25" s="12"/>
+    </row>
+    <row r="26" spans="1:4" s="3" customFormat="1">
+      <c r="A26" s="12"/>
+    </row>
+    <row r="27" spans="1:4" s="3" customFormat="1">
+      <c r="A27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" s="3" customFormat="1">
+      <c r="A28" s="12"/>
+    </row>
+    <row r="29" spans="1:4" s="3" customFormat="1">
+      <c r="A29" s="12"/>
+    </row>
+    <row r="30" spans="1:4" s="3" customFormat="1">
+      <c r="A30" s="12"/>
+    </row>
+    <row r="31" spans="1:4" s="3" customFormat="1">
+      <c r="A31" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1010,5 +1074,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/data/minfin/29_questions.xlsx
+++ b/data/minfin/29_questions.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,9 +145,6 @@
     <t>Кто, участники, бюджетный процесс, Российская Федерация</t>
   </si>
   <si>
-    <t>Участниками бюджетного процесса являются Президент Российской Федерации; высшие должностные лица субъектов Российской Федерации и главы муниципальных образований; законодательные, представительные, исполнительные органы власти и местного самоуправления; Центральный банк Российской Федерации, органы финансового контроля; органы управления государственными внебюджетными фондами; главные распорядители (распорядители) бюджетных средств; главные администраторы (администраторы) доходов бюджета и источников финансирования дефицита бюджета; получатели бюджетных средств</t>
-  </si>
-  <si>
     <t>В соответствии со статьей 152 Бюджетного кодекса Российской Федерации участниками бюджетного процесса являются:
 • Президент Российской Федерации;
 • высшее должностное лицо субъекта Российской Федерации, глава муниципального образования;
@@ -299,12 +296,15 @@
     <t>Объем Фонда национального благосостояния на 01.01.2017 года составил 4359,2 млрд. рублей, что на 1564,7 млрд. рублей или 56,0% выше, чем на 01.01.2012 года и на 868 млрд. рублей или на 16,6% меньше, чем на 01.01.2016 года.
 Информация об изменении объема Фонда национального благосостояния в 2011 – 2016 годах опубликована на официальном сайте государственной статистике ЕМИСС</t>
   </si>
+  <si>
+    <t>Участниками бюджетного процесса являются Президент Российской Федерации; высшие должностные лица субъектов Российской Федерации и гл\+авы муниципальных образований; законодательные, представительные, исполнительные органы власти и местного самоуправления; Центральный банк Российской Федерации, органы финансового контроля; органы управления государственными внебюджетными фондами; главные распорядители (распорядители) бюджетных средств; главные администраторы (администраторы) доходов бюджета и источников финансирования дефицита бюджета; получатели бюджетных средств</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,24 +743,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7:D9"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" style="2" customWidth="1"/>
@@ -778,7 +778,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -816,7 +816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="189">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="189" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
@@ -824,16 +824,16 @@
         <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="283.5">
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="157.5">
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
@@ -864,17 +864,17 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="252">
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="252" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
@@ -882,22 +882,22 @@
         <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="157.5">
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
@@ -905,22 +905,22 @@
         <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="110.25">
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
@@ -928,28 +928,28 @@
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="J7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="78.75">
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
@@ -957,22 +957,22 @@
         <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="94.5">
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>27</v>
       </c>
@@ -980,90 +980,90 @@
         <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1">
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1">
+    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1">
+    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1">
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1">
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1">
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1">
+    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" s="3" customFormat="1">
+    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
     </row>
-    <row r="18" spans="1:4" s="3" customFormat="1">
+    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
     </row>
-    <row r="19" spans="1:4" s="3" customFormat="1">
+    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
     </row>
-    <row r="20" spans="1:4" s="3" customFormat="1">
+    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
     </row>
-    <row r="21" spans="1:4" s="3" customFormat="1">
+    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
     </row>
-    <row r="22" spans="1:4" s="3" customFormat="1">
+    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" s="3" customFormat="1">
+    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" s="3" customFormat="1">
+    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
     </row>
-    <row r="25" spans="1:4" s="3" customFormat="1">
+    <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
     </row>
-    <row r="26" spans="1:4" s="3" customFormat="1">
+    <row r="26" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
     </row>
-    <row r="27" spans="1:4" s="3" customFormat="1">
+    <row r="27" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
     </row>
-    <row r="28" spans="1:4" s="3" customFormat="1">
+    <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
     </row>
-    <row r="29" spans="1:4" s="3" customFormat="1">
+    <row r="29" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
     </row>
-    <row r="30" spans="1:4" s="3" customFormat="1">
+    <row r="30" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
     </row>
-    <row r="31" spans="1:4" s="3" customFormat="1">
+    <row r="31" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
     </row>
   </sheetData>

--- a/data/minfin/29_questions.xlsx
+++ b/data/minfin/29_questions.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>На чем основывается составление проектов бюджетов Российской Федерации?</t>
   </si>
   <si>
-    <t>Принципы бюджетной системы Российской Федерации?</t>
-  </si>
-  <si>
     <t>Оперативные отчетные данные об исполнении федерального бюджета за 2016 год и текущий период 2017 года</t>
   </si>
   <si>
@@ -209,22 +206,6 @@
     <t>Принципы бюджетной системы Российской Федерации определены статьей двадцать восемь Бюджетного кодекса Российской Федерации и приведены на экране</t>
   </si>
   <si>
-    <t>В соответствии со статьей 28 Бюджетного кодекса Российской Федерации утверждены принципы бюджетной системы Российской Федерации:
-• Единство бюджетной системы Российской Федерации;
-• Разграничение доходов, расходов и источников финансирования дефицитов бюджетов между бюджетами бюджетной системы Российской Федерации;
-• Самостоятельность бюджетов;
-• Равенство бюджетных прав субъектов Российской Федерации, муниципальных образований;
-• Сбалансированность бюджета;
-• Эффективность использования бюджетных средств;
-• Общее (совокупное) покрытие расходов бюджетов;
-• Прозрачность (открытость);
-• Достоверность бюджета;
-• Адресность и целевой характер бюджетных средств;
-• Подведомственность расходов бюджетов;
-• Единство кассы;
-• Полнота отражения доходов, расходов и источников финансирования дефицитов бюджетов</t>
-  </si>
-  <si>
     <t>Раздел «Принципы бюджетной системы» на Едином портале бюджетной системы</t>
   </si>
   <si>
@@ -234,12 +215,6 @@
     <t>Оперативные, отчетные данные, исполнение, федерального бюджета, 2016, 2017, текущий год</t>
   </si>
   <si>
-    <t xml:space="preserve">С предварительной оценкой исполнения федерального бюджета можно ознакомиться на официальном сайте Министерства финансов России на официальном сайте Федерального казначейства России в разделе «Исполнение бюджета» подразделе «Федеральный бюджет» </t>
-  </si>
-  <si>
-    <t>Предварительная оценка исполнения федерального бюджета на официальном сайте Министерства финансов Российской Федерации; Раздел «Исполнение бюджета» подраздел «Федеральный бюджет» на официальном сайте Федерального казначейства России</t>
-  </si>
-  <si>
     <t>http://bit.ly/2uUUTYT;  http://www.roskazna.ru/ispolnenie-byudzhetov/federalnyj-byudzhet/1021/</t>
   </si>
   <si>
@@ -265,10 +240,6 @@
   </si>
   <si>
     <t>На начало две тысячи семнадцатого года объем Резервного фонда составил девятьсот семьдесят два миллиарда сто миллионов рублей, что на девятнадцать целых восемь десятых процента выше, чем на начало две тысячи двенадцатого года</t>
-  </si>
-  <si>
-    <t>Объем Резервного фонда на 01.01.2017 года составил 972,1 млрд. рублей, что на 160,6 млрд. рублей или 19,8% выше, чем на 01.01.2012 года и на 2668,4 млрд. рублей или на 73.3% ниже, чем на 01.01.2016 года.
-Информация об изменении объема Резервного фонда в 2011 – 2016 годах опубликована на официальном сайте государственной статистике ЕМИСС</t>
   </si>
   <si>
     <t>Информация об объеме Резервного фонда на официальном сайте государственной статистики системы ЕМИСС</t>
@@ -293,17 +264,46 @@
     <t>Информация об исполнении основных показателей федерального бюджета и консолидированного бюджета в 2012 – 2016 годах размещена в приложении 1 к иллюстрированному информационному изданию «Исполнение федерального бюджета и бюджетов бюджетной системы Российской Федерации за 2016 год», опубликованному на официальном сайте Министерства финансов Российской Федерации</t>
   </si>
   <si>
-    <t>Объем Фонда национального благосостояния на 01.01.2017 года составил 4359,2 млрд. рублей, что на 1564,7 млрд. рублей или 56,0% выше, чем на 01.01.2012 года и на 868 млрд. рублей или на 16,6% меньше, чем на 01.01.2016 года.
-Информация об изменении объема Фонда национального благосостояния в 2011 – 2016 годах опубликована на официальном сайте государственной статистике ЕМИСС</t>
-  </si>
-  <si>
     <t>Участниками бюджетного процесса являются Президент Российской Федерации; высшие должностные лица субъектов Российской Федерации и гл\+авы муниципальных образований; законодательные, представительные, исполнительные органы власти и местного самоуправления; Центральный банк Российской Федерации, органы финансового контроля; органы управления государственными внебюджетными фондами; главные распорядители (распорядители) бюджетных средств; главные администраторы (администраторы) доходов бюджета и источников финансирования дефицита бюджета; получатели бюджетных средств</t>
+  </si>
+  <si>
+    <t>Принципы бюджетной системы Российской Федерации</t>
+  </si>
+  <si>
+    <t>В соответствии со статьей 28 Бюджетного кодекса Российской Федерации утверждены принципы бюджетной системы Российской Федерации:
+• единство бюджетной системы Российской Федерации;
+• разграничение доходов, расходов и источников финансирования дефицитов бюджетов между бюджетами бюджетной системы Российской Федерации;
+• самостоятельность бюджетов;
+• равенство бюджетных прав субъектов Российской Федерации, муниципальных образований;
+• сбалансированность бюджета;
+• эффективность использования бюджетных средств;
+• общее (совокупное) покрытие расходов бюджетов;
+• прозрачность (открытость);
+• достоверность бюджета;
+• адресность и целевой характер бюджетных средств;
+• подведомственность расходов бюджетов;
+• единство кассы;
+• полнота отражения доходов, расходов и источников финансирования дефицитов бюджетов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">С предварительной оценкой исполнения федерального бюджета можно ознакомиться на официальном сайте Министерства финансов России или на официальном сайте Федерального казначейства России в разделе «Исполнение бюджета», подразделе «Федеральный бюджет» </t>
+  </si>
+  <si>
+    <t>Предварительная оценка исполнения федерального бюджета на официальном сайте Министерства финансов Российской Федерации; Раздел «Исполнение бюджета», подраздел «Федеральный бюджет» на официальном сайте Федерального казначейства России</t>
+  </si>
+  <si>
+    <t>Объем Резервного фонда на 01.01.2017 года составил 972,1 млрд. рублей, что на 160,6 млрд. рублей или 19,8% выше, чем на 01.01.2012 года и на 2668,4 млрд. рублей, или на 73.3% ниже, чем на 01.01.2016 года.
+Информация об изменении объема Резервного фонда в 2011 – 2016 годах опубликована на официальном сайте государственной статистики ЕМИСС</t>
+  </si>
+  <si>
+    <t>Объем Фонда национального благосостояния на 01.01.2017 года составил 4359,2 млрд. рублей, что на 1564,7 млрд. рублей или 56,0% выше, чем на 01.01.2012 года и на 868 млрд. рублей, или на 16,6% меньше, чем на 01.01.2016 года.
+Информация об изменении объема Фонда национального благосостояния в 2011 – 2016 годах опубликована на официальном сайте государственной статистики ЕМИСС</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -754,10 +754,10 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -824,13 +824,13 @@
         <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="299.25" x14ac:dyDescent="0.25">
@@ -841,19 +841,19 @@
         <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
@@ -864,13 +864,13 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -879,22 +879,22 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="G5" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
@@ -902,22 +902,22 @@
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
@@ -925,74 +925,74 @@
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
